--- a/Rabu/Statistika/UTS.xlsx
+++ b/Rabu/Statistika/UTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3517,42 +3517,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,18 +3536,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3610,12 +3571,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3630,8 +3632,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3660,8 +3660,8 @@
       <xdr:rowOff>5700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1874680" cy="772071"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -3757,7 +3757,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3770,7 +3770,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3784,7 +3784,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3920,7 +3920,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -4021,8 +4021,8 @@
       <xdr:rowOff>81116</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1740669" cy="654731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4058,6 +4058,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4117,7 +4118,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4130,7 +4131,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4144,23 +4145,11 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑚</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑜</m:t>
+                          <m:t>𝑚𝑜</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -4170,7 +4159,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4251,7 +4240,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4264,7 +4253,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4308,7 +4297,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4462,8 +4451,8 @@
       <xdr:rowOff>730</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1705723" cy="819840"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -4578,7 +4567,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4591,7 +4580,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4741,7 +4730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -4842,8 +4831,8 @@
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1760995" cy="819840"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -4958,7 +4947,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4971,7 +4960,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5121,7 +5110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -5222,8 +5211,8 @@
       <xdr:rowOff>193813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1811137" cy="819840"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -5338,7 +5327,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5351,7 +5340,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5501,7 +5490,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -5602,8 +5591,8 @@
       <xdr:rowOff>163281</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2502776" cy="757130"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -5639,7 +5628,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="1">
                   <a:latin typeface="Cambria Math"/>
@@ -5831,7 +5819,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -5977,8 +5965,8 @@
       <xdr:rowOff>91965</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="707566"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -6014,7 +6002,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="1">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -6258,7 +6245,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -6459,8 +6446,8 @@
       <xdr:rowOff>166894</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2062884" cy="579774"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -6496,7 +6483,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="1">
                   <a:latin typeface="Cambria Math"/>
@@ -6576,7 +6562,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -6674,8 +6660,8 @@
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2343655" cy="708067"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -6711,6 +6697,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6835,7 +6822,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6848,7 +6835,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6862,7 +6849,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6876,7 +6863,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6890,7 +6877,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6903,7 +6890,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6917,7 +6904,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6980,7 +6967,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -7092,8 +7079,8 @@
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2343655" cy="708067"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -7129,6 +7116,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7253,7 +7241,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7266,7 +7254,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7280,7 +7268,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7294,7 +7282,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7308,7 +7296,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7321,7 +7309,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7335,7 +7323,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7398,7 +7386,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -7510,8 +7498,8 @@
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2228850" cy="627608"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -7812,7 +7800,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -8021,8 +8009,8 @@
       <xdr:rowOff>35073</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2228850" cy="627608"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -8323,7 +8311,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -8537,8 +8525,8 @@
       <xdr:rowOff>5700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1874680" cy="772071"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8634,7 +8622,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8647,7 +8635,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8661,7 +8649,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8797,7 +8785,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8898,8 +8886,8 @@
       <xdr:rowOff>94723</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1740669" cy="654731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -8935,6 +8923,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8994,7 +8983,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9007,7 +8996,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9021,23 +9010,11 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑚</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑜</m:t>
+                          <m:t>𝑚𝑜</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -9047,7 +9024,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9128,7 +9105,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9141,7 +9118,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9185,7 +9162,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -9339,8 +9316,8 @@
       <xdr:rowOff>14337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1705723" cy="819840"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -9455,7 +9432,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9468,7 +9445,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9618,7 +9595,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -9719,8 +9696,8 @@
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1760995" cy="819840"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -9835,7 +9812,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9848,7 +9825,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9998,7 +9975,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -10099,8 +10076,8 @@
       <xdr:rowOff>3313</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1811137" cy="819840"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -10215,7 +10192,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10228,7 +10205,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10378,7 +10355,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -10479,8 +10456,8 @@
       <xdr:rowOff>163281</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2502776" cy="757130"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -10516,7 +10493,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="1">
                   <a:latin typeface="Cambria Math"/>
@@ -10708,7 +10684,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -10854,8 +10830,8 @@
       <xdr:rowOff>23929</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="707566"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -10891,7 +10867,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="1">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -11135,7 +11110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -11336,8 +11311,8 @@
       <xdr:rowOff>98858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2062884" cy="579774"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -11373,7 +11348,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="1">
                   <a:latin typeface="Cambria Math"/>
@@ -11453,7 +11427,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -11551,8 +11525,8 @@
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2343655" cy="708067"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -11588,6 +11562,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11712,7 +11687,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11725,7 +11700,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11739,7 +11714,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11753,7 +11728,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11767,7 +11742,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11780,7 +11755,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11794,7 +11769,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11857,7 +11832,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -11969,8 +11944,8 @@
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2343655" cy="708067"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -12006,6 +11981,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12130,7 +12106,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12143,7 +12119,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12157,7 +12133,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12171,7 +12147,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -12185,7 +12161,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12198,7 +12174,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12212,7 +12188,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12275,7 +12251,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -12387,8 +12363,8 @@
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2228850" cy="627608"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -12689,7 +12665,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -12898,8 +12874,8 @@
       <xdr:rowOff>35073</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2228850" cy="627608"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -13200,7 +13176,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -13693,8 +13669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AP30" sqref="AP30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13713,34 +13689,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:44" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>55</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="14">
         <v>48</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>22</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>49</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <v>78</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="14">
         <v>59</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="14">
         <v>27</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="14">
         <v>41</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="14">
         <v>68</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="14">
         <v>54</v>
       </c>
       <c r="M2" s="11" t="s">
@@ -13750,11 +13726,11 @@
         <f>COUNTA(B2:K6)</f>
         <v>50</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="51"/>
       <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
@@ -13794,22 +13770,22 @@
       <c r="AE2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="32" t="s">
+      <c r="AJ2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AK2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AL2" s="13" t="s">
@@ -13826,34 +13802,34 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>34</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>80</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>68</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>42</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>73</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <v>51</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>76</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="14">
         <v>45</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="14">
         <v>32</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="14">
         <v>53</v>
       </c>
       <c r="M3" s="11" t="s">
@@ -13870,7 +13846,7 @@
         <v>13</v>
       </c>
       <c r="R3" s="7">
-        <f>P3+9</f>
+        <f t="shared" ref="R3:R9" si="0">P3+9</f>
         <v>31</v>
       </c>
       <c r="S3" s="8">
@@ -13878,19 +13854,19 @@
         <v>5</v>
       </c>
       <c r="T3" s="9">
-        <f t="shared" ref="T3:T8" si="0">P3</f>
+        <f t="shared" ref="T3:T8" si="1">P3</f>
         <v>22</v>
       </c>
       <c r="U3" s="9">
-        <f t="shared" ref="U3:U8" si="1">R3</f>
+        <f t="shared" ref="U3:U8" si="2">R3</f>
         <v>31</v>
       </c>
       <c r="V3" s="9">
-        <f t="shared" ref="V3:V8" si="2">P3-0.5</f>
+        <f t="shared" ref="V3:V8" si="3">P3-0.5</f>
         <v>21.5</v>
       </c>
       <c r="W3" s="9">
-        <f t="shared" ref="W3:W8" si="3">R3+0.5</f>
+        <f t="shared" ref="W3:W8" si="4">R3+0.5</f>
         <v>31.5</v>
       </c>
       <c r="X3" s="9">
@@ -13898,7 +13874,7 @@
         <v>5</v>
       </c>
       <c r="Y3" s="10">
-        <f t="shared" ref="Y3:Y8" si="4">S3/$S$10*100%</f>
+        <f t="shared" ref="Y3:Y8" si="5">S3/$S$10*100%</f>
         <v>0.1</v>
       </c>
       <c r="Z3" s="9">
@@ -13938,7 +13914,7 @@
         <v>28</v>
       </c>
       <c r="AI3" s="9">
-        <f>S3*AH3</f>
+        <f t="shared" ref="AI3:AI9" si="6">S3*AH3</f>
         <v>140</v>
       </c>
       <c r="AJ3" s="9">
@@ -13946,7 +13922,7 @@
         <v>784</v>
       </c>
       <c r="AK3" s="9">
-        <f>S3*AJ3</f>
+        <f t="shared" ref="AK3:AK9" si="7">S3*AJ3</f>
         <v>3920</v>
       </c>
       <c r="AL3" s="9">
@@ -13967,34 +13943,34 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>66</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>32</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>64</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>47</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>76</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>58</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>75</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <v>60</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <v>35</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="14">
         <v>57</v>
       </c>
       <c r="M4" s="11" t="s">
@@ -14005,41 +13981,41 @@
         <v>22</v>
       </c>
       <c r="P4" s="5">
-        <f>R3+1</f>
+        <f t="shared" ref="P4:P9" si="8">R3+1</f>
         <v>32</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R4" s="7">
-        <f>P4+9</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="S4" s="8">
         <v>7</v>
       </c>
       <c r="T4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.5</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.5</v>
       </c>
       <c r="X4" s="9">
-        <f t="shared" ref="X4:X8" si="5">SUMIF($P$3:$P$8,"&lt;="&amp;P4,$S$3:$S$8)</f>
+        <f t="shared" ref="X4:X8" si="9">SUMIF($P$3:$P$8,"&lt;="&amp;P4,$S$3:$S$8)</f>
         <v>12</v>
       </c>
       <c r="Y4" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Z4" s="9">
@@ -14047,105 +14023,105 @@
         <v>5</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" ref="AA4:AA8" si="6">SUMIF($P$3:$P$8,"&gt;="&amp;P4,$S$3:$S$8)</f>
+        <f t="shared" ref="AA4:AA8" si="10">SUMIF($P$3:$P$8,"&gt;="&amp;P4,$S$3:$S$8)</f>
         <v>44</v>
       </c>
       <c r="AB4" s="10">
-        <f t="shared" ref="AB4:AB8" si="7">SUMIF($P$3:$P$8,"&lt;"&amp;P4,$Y$3:$Y$8)</f>
+        <f t="shared" ref="AB4:AB8" si="11">SUMIF($P$3:$P$8,"&lt;"&amp;P4,$Y$3:$Y$8)</f>
         <v>0.1</v>
       </c>
       <c r="AC4" s="10">
-        <f t="shared" ref="AC4:AC8" si="8">SUMIF($P$3:$P$8,"&gt;="&amp;P4,$Y$3:$Y$8)</f>
+        <f t="shared" ref="AC4:AC8" si="12">SUMIF($P$3:$P$8,"&gt;="&amp;P4,$Y$3:$Y$8)</f>
         <v>0.88</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" ref="AD4:AD8" si="9">(P4+R4)/2</f>
+        <f t="shared" ref="AD4:AD8" si="13">(P4+R4)/2</f>
         <v>36.5</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" ref="AE4:AE8" si="10">S4*AD4</f>
+        <f t="shared" ref="AE4:AE8" si="14">S4*AD4</f>
         <v>255.5</v>
       </c>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF9" si="11">$AE$10/$S$10</f>
+        <f t="shared" ref="AF4:AF9" si="15">$AE$10/$S$10</f>
         <v>54.5</v>
       </c>
       <c r="AG4" s="9">
-        <f t="shared" ref="AG4:AG9" si="12">AD4-AF4</f>
+        <f t="shared" ref="AG4:AG9" si="16">AD4-AF4</f>
         <v>-18</v>
       </c>
       <c r="AH4" s="5">
-        <f t="shared" ref="AH4:AH9" si="13">ABS(AG4)</f>
+        <f t="shared" ref="AH4:AH9" si="17">ABS(AG4)</f>
         <v>18</v>
       </c>
       <c r="AI4" s="9">
-        <f>S4*AH4</f>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="AJ4" s="9">
-        <f t="shared" ref="AJ4:AJ9" si="14">AG4^2</f>
+        <f t="shared" ref="AJ4:AJ9" si="18">AG4^2</f>
         <v>324</v>
       </c>
       <c r="AK4" s="9">
-        <f>S4*AJ4</f>
+        <f t="shared" si="7"/>
         <v>2268</v>
       </c>
       <c r="AL4" s="9">
-        <f t="shared" ref="AL4:AL9" si="15">AH4^3</f>
+        <f t="shared" ref="AL4:AL9" si="19">AH4^3</f>
         <v>5832</v>
       </c>
       <c r="AM4" s="9">
-        <f t="shared" ref="AM4:AM9" si="16">S4*AL4</f>
+        <f t="shared" ref="AM4:AM9" si="20">S4*AL4</f>
         <v>40824</v>
       </c>
       <c r="AN4" s="9">
-        <f t="shared" ref="AN4:AN9" si="17">AH4^4</f>
+        <f t="shared" ref="AN4:AN9" si="21">AH4^4</f>
         <v>104976</v>
       </c>
       <c r="AO4" s="9">
-        <f t="shared" ref="AO4:AO9" si="18">S4*AN4</f>
+        <f t="shared" ref="AO4:AO9" si="22">S4*AN4</f>
         <v>734832</v>
       </c>
-      <c r="AP4" s="27" t="str">
+      <c r="AP4" s="20" t="str">
         <f>Y19</f>
         <v>Kuartil 1</v>
       </c>
-      <c r="AQ4" s="30" t="s">
+      <c r="AQ4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" s="31" t="s">
+      <c r="AR4" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>73</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>38</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>30</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>44</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>54</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>57</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>72</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>67</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="14">
         <v>51</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="14">
         <v>86</v>
       </c>
       <c r="M5" s="11" t="s">
@@ -14156,137 +14132,137 @@
         <v>64</v>
       </c>
       <c r="P5" s="5">
-        <f>R4+1</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R5" s="7">
-        <f>P5+9</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="S5" s="8">
         <v>9</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.5</v>
       </c>
       <c r="W5" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.5</v>
       </c>
       <c r="X5" s="9">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="Y5" s="10">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="Y5" s="10">
-        <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
       <c r="Z5" s="9">
-        <f t="shared" ref="Z5:Z8" si="19">SUMIF($P$3:$P$8,"&lt;"&amp;P5,$S$3:$S$8)</f>
+        <f t="shared" ref="Z5:Z8" si="23">SUMIF($P$3:$P$8,"&lt;"&amp;P5,$S$3:$S$8)</f>
         <v>12</v>
       </c>
       <c r="AA5" s="9">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="11"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" si="12"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="AD5" s="9">
+        <f t="shared" si="13"/>
+        <v>46.5</v>
+      </c>
+      <c r="AE5" s="9">
+        <f t="shared" si="14"/>
+        <v>418.5</v>
+      </c>
+      <c r="AF5" s="9">
+        <f t="shared" si="15"/>
+        <v>54.5</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" si="16"/>
+        <v>-8</v>
+      </c>
+      <c r="AH5" s="5">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="AI5" s="9">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="AB5" s="10">
+        <v>72</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="AK5" s="9">
         <f t="shared" si="7"/>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="AC5" s="10">
-        <f t="shared" si="8"/>
-        <v>0.7400000000000001</v>
-      </c>
-      <c r="AD5" s="9">
-        <f t="shared" si="9"/>
-        <v>46.5</v>
-      </c>
-      <c r="AE5" s="9">
-        <f t="shared" si="10"/>
-        <v>418.5</v>
-      </c>
-      <c r="AF5" s="9">
-        <f t="shared" si="11"/>
-        <v>54.5</v>
-      </c>
-      <c r="AG5" s="9">
-        <f t="shared" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AI5" s="9">
-        <f>S5*AH5</f>
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="9">
-        <f t="shared" si="14"/>
-        <v>64</v>
-      </c>
-      <c r="AK5" s="9">
-        <f>S5*AJ5</f>
         <v>576</v>
       </c>
       <c r="AL5" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>512</v>
       </c>
       <c r="AM5" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4608</v>
       </c>
       <c r="AN5" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4096</v>
       </c>
       <c r="AO5" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>36864</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>25</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>37</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>69</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>71</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <v>52</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="14">
         <v>25</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>47</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <v>63</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="14">
         <v>59</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="14">
         <v>64</v>
       </c>
       <c r="M6" s="11" t="s">
@@ -14297,112 +14273,112 @@
         <v>6.6066010143088612</v>
       </c>
       <c r="P6" s="5">
-        <f>R5+1</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R6" s="7">
-        <f>P6+9</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="S6" s="8">
         <v>11</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.5</v>
       </c>
       <c r="W6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="X6" s="9">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="Y6" s="10">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="Y6" s="10">
-        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="Z6" s="9">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="11"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="12"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" si="13"/>
+        <v>56.5</v>
+      </c>
+      <c r="AE6" s="9">
+        <f t="shared" si="14"/>
+        <v>621.5</v>
+      </c>
+      <c r="AF6" s="9">
+        <f t="shared" si="15"/>
+        <v>54.5</v>
+      </c>
+      <c r="AG6" s="9">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AH6" s="5">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AI6" s="9">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AJ6" s="9">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AK6" s="9">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="AL6" s="9">
         <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="AA6" s="9">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="AB6" s="10">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="AC6" s="10">
-        <f t="shared" si="8"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AD6" s="9">
-        <f t="shared" si="9"/>
-        <v>56.5</v>
-      </c>
-      <c r="AE6" s="9">
-        <f t="shared" si="10"/>
-        <v>621.5</v>
-      </c>
-      <c r="AF6" s="9">
-        <f t="shared" si="11"/>
-        <v>54.5</v>
-      </c>
-      <c r="AG6" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AH6" s="5">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AI6" s="9">
-        <f>S6*AH6</f>
-        <v>22</v>
-      </c>
-      <c r="AJ6" s="9">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AK6" s="9">
-        <f>S6*AJ6</f>
-        <v>44</v>
-      </c>
-      <c r="AL6" s="9">
-        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="AM6" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="AN6" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="AO6" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>176</v>
       </c>
-      <c r="AP6" s="19" t="str">
+      <c r="AP6" s="15" t="str">
         <f>S19</f>
         <v>Median</v>
       </c>
-      <c r="AQ6" s="24" t="str">
+      <c r="AQ6" s="18" t="str">
         <f>V19</f>
         <v>Modus</v>
       </c>
@@ -14416,322 +14392,322 @@
         <v>9.687280927270475</v>
       </c>
       <c r="P7" s="5">
-        <f>R6+1</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R7" s="7">
-        <f>P7+9</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="S7" s="8">
         <v>9</v>
       </c>
       <c r="T7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="U7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
       <c r="W7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71.5</v>
       </c>
       <c r="X7" s="9">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="Y7" s="10">
         <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="Y7" s="10">
-        <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
       <c r="Z7" s="9">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="AA7" s="9">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="11"/>
+        <v>0.64</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" si="12"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="AD7" s="9">
+        <f t="shared" si="13"/>
+        <v>66.5</v>
+      </c>
+      <c r="AE7" s="9">
+        <f t="shared" si="14"/>
+        <v>598.5</v>
+      </c>
+      <c r="AF7" s="9">
+        <f t="shared" si="15"/>
+        <v>54.5</v>
+      </c>
+      <c r="AG7" s="9">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AH7" s="5">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AI7" s="9">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f t="shared" si="18"/>
+        <v>144</v>
+      </c>
+      <c r="AK7" s="9">
+        <f t="shared" si="7"/>
+        <v>1296</v>
+      </c>
+      <c r="AL7" s="9">
         <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="AA7" s="9">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="AB7" s="10">
-        <f t="shared" si="7"/>
-        <v>0.64</v>
-      </c>
-      <c r="AC7" s="10">
-        <f t="shared" si="8"/>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="AD7" s="9">
-        <f t="shared" si="9"/>
-        <v>66.5</v>
-      </c>
-      <c r="AE7" s="9">
-        <f t="shared" si="10"/>
-        <v>598.5</v>
-      </c>
-      <c r="AF7" s="9">
-        <f t="shared" si="11"/>
-        <v>54.5</v>
-      </c>
-      <c r="AG7" s="9">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="AH7" s="5">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="AI7" s="9">
-        <f>S7*AH7</f>
-        <v>108</v>
-      </c>
-      <c r="AJ7" s="9">
-        <f t="shared" si="14"/>
-        <v>144</v>
-      </c>
-      <c r="AK7" s="9">
-        <f>S7*AJ7</f>
-        <v>1296</v>
-      </c>
-      <c r="AL7" s="9">
-        <f t="shared" si="15"/>
         <v>1728</v>
       </c>
       <c r="AM7" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>15552</v>
       </c>
       <c r="AN7" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20736</v>
       </c>
       <c r="AO7" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>186624</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="P8" s="5">
-        <f>R7+1</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R8" s="7">
-        <f>P8+9</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="S8" s="8">
         <v>8</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71.5</v>
       </c>
       <c r="W8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81.5</v>
       </c>
       <c r="X8" s="9">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="Y8" s="10">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="Y8" s="10">
-        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="Z8" s="9">
+        <f t="shared" si="23"/>
+        <v>41</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AB8" s="10">
+        <f t="shared" si="11"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
+      <c r="AD8" s="9">
+        <f t="shared" si="13"/>
+        <v>76.5</v>
+      </c>
+      <c r="AE8" s="9">
+        <f t="shared" si="14"/>
+        <v>612</v>
+      </c>
+      <c r="AF8" s="9">
+        <f t="shared" si="15"/>
+        <v>54.5</v>
+      </c>
+      <c r="AG8" s="9">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="AH8" s="5">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="AI8" s="9">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="AJ8" s="9">
+        <f t="shared" si="18"/>
+        <v>484</v>
+      </c>
+      <c r="AK8" s="9">
+        <f t="shared" si="7"/>
+        <v>3872</v>
+      </c>
+      <c r="AL8" s="9">
         <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="AA8" s="9">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AB8" s="10">
-        <f t="shared" si="7"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="AC8" s="10">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="AD8" s="9">
-        <f t="shared" si="9"/>
-        <v>76.5</v>
-      </c>
-      <c r="AE8" s="9">
-        <f t="shared" si="10"/>
-        <v>612</v>
-      </c>
-      <c r="AF8" s="9">
-        <f t="shared" si="11"/>
-        <v>54.5</v>
-      </c>
-      <c r="AG8" s="9">
-        <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-      <c r="AH8" s="5">
-        <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="AI8" s="9">
-        <f>S8*AH8</f>
-        <v>176</v>
-      </c>
-      <c r="AJ8" s="9">
-        <f t="shared" si="14"/>
-        <v>484</v>
-      </c>
-      <c r="AK8" s="9">
-        <f>S8*AJ8</f>
-        <v>3872</v>
-      </c>
-      <c r="AL8" s="9">
-        <f t="shared" si="15"/>
         <v>10648</v>
       </c>
       <c r="AM8" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>85184</v>
       </c>
       <c r="AN8" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>234256</v>
       </c>
       <c r="AO8" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1874048</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="P9" s="5">
-        <f>R8+1</f>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R9" s="7">
-        <f>P9+9</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="S9" s="9">
         <v>1</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" ref="T9" si="20">P9</f>
+        <f t="shared" ref="T9" si="24">P9</f>
         <v>82</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" ref="U9" si="21">R9</f>
+        <f t="shared" ref="U9" si="25">R9</f>
         <v>91</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" ref="V9" si="22">P9-0.5</f>
+        <f t="shared" ref="V9" si="26">P9-0.5</f>
         <v>81.5</v>
       </c>
       <c r="W9" s="9">
-        <f t="shared" ref="W9" si="23">R9+0.5</f>
+        <f t="shared" ref="W9" si="27">R9+0.5</f>
         <v>91.5</v>
       </c>
       <c r="X9" s="9">
-        <f t="shared" ref="X9" si="24">SUMIF($P$3:$P$8,"&lt;="&amp;P9,$S$3:$S$8)</f>
+        <f t="shared" ref="X9" si="28">SUMIF($P$3:$P$8,"&lt;="&amp;P9,$S$3:$S$8)</f>
         <v>49</v>
       </c>
       <c r="Y9" s="10">
-        <f t="shared" ref="Y9" si="25">S9/$S$10*100%</f>
+        <f t="shared" ref="Y9" si="29">S9/$S$10*100%</f>
         <v>0.02</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" ref="Z9" si="26">SUMIF($P$3:$P$8,"&lt;"&amp;P9,$S$3:$S$8)</f>
+        <f t="shared" ref="Z9" si="30">SUMIF($P$3:$P$8,"&lt;"&amp;P9,$S$3:$S$8)</f>
         <v>49</v>
       </c>
       <c r="AA9" s="9">
-        <f t="shared" ref="AA9" si="27">SUMIF($P$3:$P$8,"&gt;="&amp;P9,$S$3:$S$8)</f>
+        <f t="shared" ref="AA9" si="31">SUMIF($P$3:$P$8,"&gt;="&amp;P9,$S$3:$S$8)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="10">
-        <f t="shared" ref="AB9" si="28">SUMIF($P$3:$P$8,"&lt;"&amp;P9,$Y$3:$Y$8)</f>
+        <f t="shared" ref="AB9" si="32">SUMIF($P$3:$P$8,"&lt;"&amp;P9,$Y$3:$Y$8)</f>
         <v>0.98000000000000009</v>
       </c>
       <c r="AC9" s="10">
-        <f t="shared" ref="AC9" si="29">SUMIF($P$3:$P$8,"&gt;="&amp;P9,$Y$3:$Y$8)</f>
+        <f t="shared" ref="AC9" si="33">SUMIF($P$3:$P$8,"&gt;="&amp;P9,$Y$3:$Y$8)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="9">
-        <f t="shared" ref="AD9" si="30">(P9+R9)/2</f>
+        <f t="shared" ref="AD9" si="34">(P9+R9)/2</f>
         <v>86.5</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" ref="AE9" si="31">S9*AD9</f>
+        <f t="shared" ref="AE9" si="35">S9*AD9</f>
         <v>86.5</v>
       </c>
       <c r="AF9" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>54.5</v>
       </c>
       <c r="AG9" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="AH9" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="AI9" s="9">
-        <f>S9*AH9</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="AJ9" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1024</v>
       </c>
       <c r="AK9" s="9">
-        <f>S9*AJ9</f>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="AL9" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32768</v>
       </c>
       <c r="AM9" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>32768</v>
       </c>
       <c r="AN9" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1048576</v>
       </c>
       <c r="AO9" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1048576</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
       <c r="S10" s="9">
         <f>SUM(S3:S9)</f>
         <v>50</v>
@@ -14749,7 +14725,7 @@
         <f>SUM(AK3:AK9)</f>
         <v>13000</v>
       </c>
-      <c r="AM10" s="33">
+      <c r="AM10" s="24">
         <f>SUM(AM3:AM9)</f>
         <v>288784</v>
       </c>
@@ -14766,75 +14742,75 @@
         <f>AE10/S10</f>
         <v>54.5</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
+      <c r="Y12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="16"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="16"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="Y14" s="20"/>
+      <c r="Y14" s="16"/>
       <c r="AB14" s="12"/>
-      <c r="AC14" s="20"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="1:44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Y16" s="20"/>
+      <c r="Y16" s="16"/>
       <c r="AB16" s="12"/>
-      <c r="AC16" s="20"/>
+      <c r="AC16" s="16"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S17" s="11" t="s">
@@ -14844,31 +14820,31 @@
         <f>AE10/S10</f>
         <v>54.5</v>
       </c>
-      <c r="Y17" s="20"/>
+      <c r="Y17" s="16"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="20"/>
+      <c r="AC17" s="16"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="21"/>
-      <c r="V19" s="23" t="s">
+      <c r="T19" s="53"/>
+      <c r="V19" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="23"/>
-      <c r="Y19" s="26" t="s">
+      <c r="W19" s="54"/>
+      <c r="Y19" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="Z19" s="26"/>
-      <c r="AB19" s="29" t="s">
+      <c r="Z19" s="55"/>
+      <c r="AB19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AC19" s="29"/>
-      <c r="AE19" s="28" t="s">
+      <c r="AC19" s="47"/>
+      <c r="AE19" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AF19" s="28"/>
+      <c r="AF19" s="48"/>
     </row>
     <row r="20" spans="1:44" ht="18.75" x14ac:dyDescent="0.35">
       <c r="S20" s="11" t="s">
@@ -14952,8 +14928,8 @@
         <f>S6</f>
         <v>11</v>
       </c>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25" t="s">
+      <c r="U22" s="19"/>
+      <c r="V22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="W22" s="11">
@@ -14990,7 +14966,7 @@
         <f>$R$3-$P$3+1</f>
         <v>10</v>
       </c>
-      <c r="V23" s="25" t="s">
+      <c r="V23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="W23" s="11">
@@ -15020,7 +14996,7 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S24" s="22" t="s">
+      <c r="S24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="T24" s="11">
@@ -15034,21 +15010,21 @@
         <f>$R$3-$P$3+1</f>
         <v>10</v>
       </c>
-      <c r="Y24" s="22" t="s">
+      <c r="Y24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="Z24" s="11">
         <f>X3</f>
         <v>5</v>
       </c>
-      <c r="AB24" s="22" t="s">
+      <c r="AB24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AC24" s="11">
         <f>X3</f>
         <v>5</v>
       </c>
-      <c r="AE24" s="22" t="s">
+      <c r="AE24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AF24" s="11">
@@ -15099,52 +15075,52 @@
       </c>
     </row>
     <row r="31" spans="1:44" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="AR31" s="46"/>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S33" s="11" t="s">
@@ -15183,52 +15159,52 @@
       </c>
     </row>
     <row r="41" spans="1:44" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
-      <c r="AQ41" s="34"/>
-      <c r="AR41" s="34"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="46"/>
+      <c r="AK41" s="46"/>
+      <c r="AL41" s="46"/>
+      <c r="AM41" s="46"/>
+      <c r="AN41" s="46"/>
+      <c r="AO41" s="46"/>
+      <c r="AP41" s="46"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="46"/>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="O42" s="11" t="s">
@@ -15258,16 +15234,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="A15:AR15"/>
     <mergeCell ref="A31:AR31"/>
     <mergeCell ref="A41:AR41"/>
     <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="Y19:Z19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15281,886 +15257,886 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BK16" sqref="BK16"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="4" style="43" customWidth="1"/>
-    <col min="5" max="8" width="6.140625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="43" customWidth="1"/>
-    <col min="11" max="12" width="4.140625" style="43" customWidth="1"/>
-    <col min="13" max="16" width="8.28515625" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" style="43" customWidth="1"/>
-    <col min="18" max="18" width="6" style="43" customWidth="1"/>
-    <col min="19" max="26" width="8.28515625" style="43" customWidth="1"/>
-    <col min="27" max="31" width="8.5703125" style="43" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="4.7109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="4" style="30" customWidth="1"/>
+    <col min="5" max="8" width="6.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="30" customWidth="1"/>
+    <col min="11" max="12" width="4.140625" style="30" customWidth="1"/>
+    <col min="13" max="16" width="8.28515625" style="30" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="6" style="30" customWidth="1"/>
+    <col min="19" max="26" width="8.28515625" style="30" customWidth="1"/>
+    <col min="27" max="31" width="8.5703125" style="30" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="31">
         <v>22</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="46">
-        <f>A2+9</f>
+      <c r="C2" s="33">
+        <f t="shared" ref="C2:C8" si="0">A2+9</f>
         <v>31</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="34">
         <v>5</v>
       </c>
-      <c r="E2" s="48">
-        <f t="shared" ref="E2:E8" si="0">A2</f>
+      <c r="E2" s="35">
+        <f t="shared" ref="E2:E8" si="1">A2</f>
         <v>22</v>
       </c>
-      <c r="F2" s="48">
-        <f t="shared" ref="F2:F8" si="1">C2</f>
+      <c r="F2" s="35">
+        <f t="shared" ref="F2:F8" si="2">C2</f>
         <v>31</v>
       </c>
-      <c r="G2" s="48">
-        <f t="shared" ref="G2:G8" si="2">A2-0.5</f>
+      <c r="G2" s="35">
+        <f t="shared" ref="G2:G8" si="3">A2-0.5</f>
         <v>21.5</v>
       </c>
-      <c r="H2" s="48">
-        <f t="shared" ref="H2:H8" si="3">C2+0.5</f>
+      <c r="H2" s="35">
+        <f t="shared" ref="H2:H8" si="4">C2+0.5</f>
         <v>31.5</v>
       </c>
-      <c r="I2" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;="&amp;A2,$D$2:$D$7)</f>
+      <c r="I2" s="35">
+        <f t="shared" ref="I2:I8" si="5">SUMIF($A$2:$A$7,"&lt;="&amp;A2,$D$2:$D$7)</f>
         <v>5</v>
       </c>
-      <c r="J2" s="49">
-        <f>D2/$D$9*100%</f>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2:J8" si="6">D2/$D$9*100%</f>
         <v>0.1</v>
       </c>
-      <c r="K2" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A2,$D$2:$D$7)</f>
+      <c r="K2" s="35">
+        <f t="shared" ref="K2:K8" si="7">SUMIF($A$2:$A$7,"&lt;"&amp;A2,$D$2:$D$7)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="48">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A2,$D$2:$D$7)</f>
+      <c r="L2" s="35">
+        <f t="shared" ref="L2:L8" si="8">SUMIF($A$2:$A$7,"&gt;="&amp;A2,$D$2:$D$7)</f>
         <v>49</v>
       </c>
-      <c r="M2" s="49">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A2,$J$2:$J$7)</f>
+      <c r="M2" s="36">
+        <f t="shared" ref="M2:M8" si="9">SUMIF($A$2:$A$7,"&lt;"&amp;A2,$J$2:$J$7)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="49">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A2,$J$2:$J$7)</f>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2:N8" si="10">SUMIF($A$2:$A$7,"&gt;="&amp;A2,$J$2:$J$7)</f>
         <v>0.98000000000000009</v>
       </c>
-      <c r="O2" s="48">
+      <c r="O2" s="35">
         <f>(A2+C2)/2</f>
         <v>26.5</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="35">
         <f>D2*O2</f>
         <v>132.5</v>
       </c>
-      <c r="Q2" s="48">
-        <f>$P$9/$D$9</f>
+      <c r="Q2" s="35">
+        <f t="shared" ref="Q2:Q8" si="11">$P$9/$D$9</f>
         <v>54.5</v>
       </c>
-      <c r="R2" s="48">
+      <c r="R2" s="35">
         <f>O2-Q2</f>
         <v>-28</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S2" s="31">
         <f>ABS(R2)</f>
         <v>28</v>
       </c>
-      <c r="T2" s="48">
-        <f>D2*S2</f>
+      <c r="T2" s="35">
+        <f t="shared" ref="T2:T8" si="12">D2*S2</f>
         <v>140</v>
       </c>
-      <c r="U2" s="48">
+      <c r="U2" s="35">
         <f>R2^2</f>
         <v>784</v>
       </c>
-      <c r="V2" s="48">
-        <f>D2*U2</f>
+      <c r="V2" s="35">
+        <f t="shared" ref="V2:V8" si="13">D2*U2</f>
         <v>3920</v>
       </c>
-      <c r="W2" s="48">
+      <c r="W2" s="35">
         <f>S2^3</f>
         <v>21952</v>
       </c>
-      <c r="X2" s="48">
+      <c r="X2" s="35">
         <f>D2*W2</f>
         <v>109760</v>
       </c>
-      <c r="Y2" s="48">
+      <c r="Y2" s="35">
         <f>S2^4</f>
         <v>614656</v>
       </c>
-      <c r="Z2" s="48">
+      <c r="Z2" s="35">
         <f>D2*Y2</f>
         <v>3073280</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
-        <f>C2+1</f>
+      <c r="A3" s="31">
+        <f t="shared" ref="A3:A8" si="14">C2+1</f>
         <v>32</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="46">
-        <f>A3+9</f>
+      <c r="C3" s="33">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="34">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F3" s="35">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="G3" s="35">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="H3" s="35">
+        <f t="shared" si="4"/>
+        <v>41.5</v>
+      </c>
+      <c r="I3" s="35">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J3" s="36">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K3" s="35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L3" s="35">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="M3" s="36">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="36">
+        <f t="shared" si="10"/>
+        <v>0.88</v>
+      </c>
+      <c r="O3" s="35">
+        <f t="shared" ref="O3:O8" si="15">(A3+C3)/2</f>
+        <v>36.5</v>
+      </c>
+      <c r="P3" s="35">
+        <f t="shared" ref="P3:P8" si="16">D3*O3</f>
+        <v>255.5</v>
+      </c>
+      <c r="Q3" s="35">
+        <f t="shared" si="11"/>
+        <v>54.5</v>
+      </c>
+      <c r="R3" s="35">
+        <f t="shared" ref="R3:R8" si="17">O3-Q3</f>
+        <v>-18</v>
+      </c>
+      <c r="S3" s="31">
+        <f t="shared" ref="S3:S8" si="18">ABS(R3)</f>
+        <v>18</v>
+      </c>
+      <c r="T3" s="35">
+        <f t="shared" si="12"/>
+        <v>126</v>
+      </c>
+      <c r="U3" s="35">
+        <f t="shared" ref="U3:U8" si="19">R3^2</f>
+        <v>324</v>
+      </c>
+      <c r="V3" s="35">
+        <f t="shared" si="13"/>
+        <v>2268</v>
+      </c>
+      <c r="W3" s="35">
+        <f t="shared" ref="W3:W8" si="20">S3^3</f>
+        <v>5832</v>
+      </c>
+      <c r="X3" s="35">
+        <f t="shared" ref="X3:X8" si="21">D3*W3</f>
+        <v>40824</v>
+      </c>
+      <c r="Y3" s="35">
+        <f t="shared" ref="Y3:Y8" si="22">S3^4</f>
+        <v>104976</v>
+      </c>
+      <c r="Z3" s="35">
+        <f t="shared" ref="Z3:Z8" si="23">D3*Y3</f>
+        <v>734832</v>
+      </c>
+      <c r="AA3" s="37" t="str">
+        <f>V19</f>
+        <v>Kuartil 1</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="33">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F3" s="48">
+        <v>51</v>
+      </c>
+      <c r="D4" s="34">
+        <v>9</v>
+      </c>
+      <c r="E4" s="35">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="G3" s="48">
+        <v>42</v>
+      </c>
+      <c r="F4" s="35">
         <f t="shared" si="2"/>
-        <v>31.5</v>
-      </c>
-      <c r="H3" s="48">
+        <v>51</v>
+      </c>
+      <c r="G4" s="35">
         <f t="shared" si="3"/>
         <v>41.5</v>
       </c>
-      <c r="I3" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;="&amp;A3,$D$2:$D$7)</f>
+      <c r="H4" s="35">
+        <f t="shared" si="4"/>
+        <v>51.5</v>
+      </c>
+      <c r="I4" s="35">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J4" s="36">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+      <c r="K4" s="35">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="J3" s="49">
-        <f>D3/$D$9*100%</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K3" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A3,$D$2:$D$7)</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="48">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A3,$D$2:$D$7)</f>
-        <v>44</v>
-      </c>
-      <c r="M3" s="49">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A3,$J$2:$J$7)</f>
-        <v>0.1</v>
-      </c>
-      <c r="N3" s="49">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A3,$J$2:$J$7)</f>
-        <v>0.88</v>
-      </c>
-      <c r="O3" s="48">
-        <f t="shared" ref="O3:O8" si="4">(A3+C3)/2</f>
-        <v>36.5</v>
-      </c>
-      <c r="P3" s="48">
-        <f t="shared" ref="P3:P8" si="5">D3*O3</f>
-        <v>255.5</v>
-      </c>
-      <c r="Q3" s="48">
-        <f>$P$9/$D$9</f>
+      <c r="L4" s="35">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="M4" s="36">
+        <f t="shared" si="9"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="N4" s="36">
+        <f t="shared" si="10"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="O4" s="35">
+        <f t="shared" si="15"/>
+        <v>46.5</v>
+      </c>
+      <c r="P4" s="35">
+        <f t="shared" si="16"/>
+        <v>418.5</v>
+      </c>
+      <c r="Q4" s="35">
+        <f t="shared" si="11"/>
         <v>54.5</v>
       </c>
-      <c r="R3" s="48">
-        <f t="shared" ref="R3:R8" si="6">O3-Q3</f>
-        <v>-18</v>
-      </c>
-      <c r="S3" s="44">
-        <f t="shared" ref="S3:S8" si="7">ABS(R3)</f>
-        <v>18</v>
-      </c>
-      <c r="T3" s="48">
-        <f>D3*S3</f>
-        <v>126</v>
-      </c>
-      <c r="U3" s="48">
-        <f t="shared" ref="U3:U8" si="8">R3^2</f>
-        <v>324</v>
-      </c>
-      <c r="V3" s="48">
-        <f>D3*U3</f>
-        <v>2268</v>
-      </c>
-      <c r="W3" s="48">
-        <f t="shared" ref="W3:W8" si="9">S3^3</f>
-        <v>5832</v>
-      </c>
-      <c r="X3" s="48">
-        <f t="shared" ref="X3:X8" si="10">D3*W3</f>
-        <v>40824</v>
-      </c>
-      <c r="Y3" s="48">
-        <f t="shared" ref="Y3:Y8" si="11">S3^4</f>
-        <v>104976</v>
-      </c>
-      <c r="Z3" s="48">
-        <f t="shared" ref="Z3:Z8" si="12">D3*Y3</f>
-        <v>734832</v>
-      </c>
-      <c r="AA3" s="50" t="str">
-        <f>V19</f>
-        <v>Kuartil 1</v>
-      </c>
-      <c r="AB3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="52" t="s">
-        <v>43</v>
+      <c r="R4" s="35">
+        <f t="shared" si="17"/>
+        <v>-8</v>
+      </c>
+      <c r="S4" s="31">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="T4" s="35">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="U4" s="35">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="V4" s="35">
+        <f t="shared" si="13"/>
+        <v>576</v>
+      </c>
+      <c r="W4" s="35">
+        <f t="shared" si="20"/>
+        <v>512</v>
+      </c>
+      <c r="X4" s="35">
+        <f t="shared" si="21"/>
+        <v>4608</v>
+      </c>
+      <c r="Y4" s="35">
+        <f t="shared" si="22"/>
+        <v>4096</v>
+      </c>
+      <c r="Z4" s="35">
+        <f t="shared" si="23"/>
+        <v>36864</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
-        <f>C3+1</f>
-        <v>42</v>
-      </c>
-      <c r="B4" s="45" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46">
-        <f>A4+9</f>
-        <v>51</v>
-      </c>
-      <c r="D4" s="47">
-        <v>9</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="C5" s="33">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F4" s="48">
+        <v>61</v>
+      </c>
+      <c r="D5" s="34">
+        <v>11</v>
+      </c>
+      <c r="E5" s="35">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G4" s="48">
+        <v>52</v>
+      </c>
+      <c r="F5" s="35">
         <f t="shared" si="2"/>
-        <v>41.5</v>
-      </c>
-      <c r="H4" s="48">
+        <v>61</v>
+      </c>
+      <c r="G5" s="35">
         <f t="shared" si="3"/>
         <v>51.5</v>
       </c>
-      <c r="I4" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;="&amp;A4,$D$2:$D$7)</f>
+      <c r="H5" s="35">
+        <f t="shared" si="4"/>
+        <v>61.5</v>
+      </c>
+      <c r="I5" s="35">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="J5" s="36">
+        <f t="shared" si="6"/>
+        <v>0.22</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="J4" s="49">
-        <f>D4/$D$9*100%</f>
-        <v>0.18</v>
-      </c>
-      <c r="K4" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A4,$D$2:$D$7)</f>
-        <v>12</v>
-      </c>
-      <c r="L4" s="48">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A4,$D$2:$D$7)</f>
-        <v>37</v>
-      </c>
-      <c r="M4" s="49">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A4,$J$2:$J$7)</f>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="N4" s="49">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A4,$J$2:$J$7)</f>
-        <v>0.7400000000000001</v>
-      </c>
-      <c r="O4" s="48">
-        <f t="shared" si="4"/>
-        <v>46.5</v>
-      </c>
-      <c r="P4" s="48">
-        <f t="shared" si="5"/>
-        <v>418.5</v>
-      </c>
-      <c r="Q4" s="48">
-        <f>$P$9/$D$9</f>
+      <c r="L5" s="35">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="M5" s="36">
+        <f t="shared" si="9"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="N5" s="36">
+        <f t="shared" si="10"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O5" s="35">
+        <f t="shared" si="15"/>
+        <v>56.5</v>
+      </c>
+      <c r="P5" s="35">
+        <f t="shared" si="16"/>
+        <v>621.5</v>
+      </c>
+      <c r="Q5" s="35">
+        <f t="shared" si="11"/>
         <v>54.5</v>
       </c>
-      <c r="R4" s="48">
-        <f t="shared" si="6"/>
-        <v>-8</v>
-      </c>
-      <c r="S4" s="44">
-        <f t="shared" si="7"/>
+      <c r="R5" s="35">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="31">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="T5" s="35">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="U5" s="35">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="V5" s="35">
+        <f t="shared" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="W5" s="35">
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
-      <c r="T4" s="48">
-        <f>D4*S4</f>
-        <v>72</v>
-      </c>
-      <c r="U4" s="48">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="V4" s="48">
-        <f>D4*U4</f>
-        <v>576</v>
-      </c>
-      <c r="W4" s="48">
-        <f t="shared" si="9"/>
-        <v>512</v>
-      </c>
-      <c r="X4" s="48">
-        <f t="shared" si="10"/>
-        <v>4608</v>
-      </c>
-      <c r="Y4" s="48">
-        <f t="shared" si="11"/>
-        <v>4096</v>
-      </c>
-      <c r="Z4" s="48">
-        <f t="shared" si="12"/>
-        <v>36864</v>
+      <c r="X5" s="35">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+      <c r="Y5" s="35">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="Z5" s="35">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="AA5" s="40" t="str">
+        <f>P19</f>
+        <v>Median</v>
+      </c>
+      <c r="AB5" s="41" t="str">
+        <f>S19</f>
+        <v>Modus</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
-        <f>C4+1</f>
-        <v>52</v>
-      </c>
-      <c r="B5" s="45" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="46">
-        <f>A5+9</f>
-        <v>61</v>
-      </c>
-      <c r="D5" s="47">
-        <v>11</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="C6" s="33">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="F5" s="48">
+        <v>71</v>
+      </c>
+      <c r="D6" s="34">
+        <v>9</v>
+      </c>
+      <c r="E6" s="35">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="G5" s="48">
+        <v>62</v>
+      </c>
+      <c r="F6" s="35">
         <f t="shared" si="2"/>
-        <v>51.5</v>
-      </c>
-      <c r="H5" s="48">
+        <v>71</v>
+      </c>
+      <c r="G6" s="35">
         <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
-      <c r="I5" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;="&amp;A5,$D$2:$D$7)</f>
+      <c r="H6" s="35">
+        <f t="shared" si="4"/>
+        <v>71.5</v>
+      </c>
+      <c r="I6" s="35">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="J6" s="36">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="J5" s="49">
-        <f>D5/$D$9*100%</f>
-        <v>0.22</v>
-      </c>
-      <c r="K5" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A5,$D$2:$D$7)</f>
-        <v>21</v>
-      </c>
-      <c r="L5" s="48">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A5,$D$2:$D$7)</f>
-        <v>28</v>
-      </c>
-      <c r="M5" s="49">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A5,$J$2:$J$7)</f>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="N5" s="49">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A5,$J$2:$J$7)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O5" s="48">
+      <c r="L6" s="35">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="M6" s="36">
+        <f t="shared" si="9"/>
+        <v>0.64</v>
+      </c>
+      <c r="N6" s="36">
+        <f t="shared" si="10"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O6" s="35">
+        <f t="shared" si="15"/>
+        <v>66.5</v>
+      </c>
+      <c r="P6" s="35">
+        <f t="shared" si="16"/>
+        <v>598.5</v>
+      </c>
+      <c r="Q6" s="35">
+        <f t="shared" si="11"/>
+        <v>54.5</v>
+      </c>
+      <c r="R6" s="35">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="S6" s="31">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="T6" s="35">
+        <f t="shared" si="12"/>
+        <v>108</v>
+      </c>
+      <c r="U6" s="35">
+        <f t="shared" si="19"/>
+        <v>144</v>
+      </c>
+      <c r="V6" s="35">
+        <f t="shared" si="13"/>
+        <v>1296</v>
+      </c>
+      <c r="W6" s="35">
+        <f t="shared" si="20"/>
+        <v>1728</v>
+      </c>
+      <c r="X6" s="35">
+        <f t="shared" si="21"/>
+        <v>15552</v>
+      </c>
+      <c r="Y6" s="35">
+        <f t="shared" si="22"/>
+        <v>20736</v>
+      </c>
+      <c r="Z6" s="35">
+        <f t="shared" si="23"/>
+        <v>186624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="34">
+        <v>8</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F7" s="35">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G7" s="35">
+        <f t="shared" si="3"/>
+        <v>71.5</v>
+      </c>
+      <c r="H7" s="35">
         <f t="shared" si="4"/>
-        <v>56.5</v>
-      </c>
-      <c r="P5" s="48">
+        <v>81.5</v>
+      </c>
+      <c r="I7" s="35">
         <f t="shared" si="5"/>
-        <v>621.5</v>
-      </c>
-      <c r="Q5" s="48">
-        <f>$P$9/$D$9</f>
+        <v>49</v>
+      </c>
+      <c r="J7" s="36">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" si="9"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="N7" s="36">
+        <f t="shared" si="10"/>
+        <v>0.16</v>
+      </c>
+      <c r="O7" s="35">
+        <f t="shared" si="15"/>
+        <v>76.5</v>
+      </c>
+      <c r="P7" s="35">
+        <f t="shared" si="16"/>
+        <v>612</v>
+      </c>
+      <c r="Q7" s="35">
+        <f t="shared" si="11"/>
         <v>54.5</v>
       </c>
-      <c r="R5" s="48">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="S5" s="44">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T5" s="48">
-        <f>D5*S5</f>
+      <c r="R7" s="35">
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="U5" s="48">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="V5" s="48">
-        <f>D5*U5</f>
-        <v>44</v>
-      </c>
-      <c r="W5" s="48">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="X5" s="48">
-        <f t="shared" si="10"/>
-        <v>88</v>
-      </c>
-      <c r="Y5" s="48">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="Z5" s="48">
+      <c r="S7" s="31">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="T7" s="35">
         <f t="shared" si="12"/>
         <v>176</v>
       </c>
-      <c r="AA5" s="53" t="str">
-        <f>P19</f>
-        <v>Median</v>
-      </c>
-      <c r="AB5" s="54" t="str">
-        <f>S19</f>
-        <v>Modus</v>
+      <c r="U7" s="35">
+        <f t="shared" si="19"/>
+        <v>484</v>
+      </c>
+      <c r="V7" s="35">
+        <f t="shared" si="13"/>
+        <v>3872</v>
+      </c>
+      <c r="W7" s="35">
+        <f t="shared" si="20"/>
+        <v>10648</v>
+      </c>
+      <c r="X7" s="35">
+        <f t="shared" si="21"/>
+        <v>85184</v>
+      </c>
+      <c r="Y7" s="35">
+        <f t="shared" si="22"/>
+        <v>234256</v>
+      </c>
+      <c r="Z7" s="35">
+        <f t="shared" si="23"/>
+        <v>1874048</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
-        <f>C5+1</f>
-        <v>62</v>
-      </c>
-      <c r="B6" s="45" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="46">
-        <f>A6+9</f>
-        <v>71</v>
-      </c>
-      <c r="D6" s="47">
-        <v>9</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="C8" s="33">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="F6" s="48">
+        <v>91</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="G6" s="48">
+        <v>82</v>
+      </c>
+      <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>61.5</v>
-      </c>
-      <c r="H6" s="48">
-        <f t="shared" si="3"/>
-        <v>71.5</v>
-      </c>
-      <c r="I6" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;="&amp;A6,$D$2:$D$7)</f>
-        <v>41</v>
-      </c>
-      <c r="J6" s="49">
-        <f>D6/$D$9*100%</f>
-        <v>0.18</v>
-      </c>
-      <c r="K6" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A6,$D$2:$D$7)</f>
-        <v>32</v>
-      </c>
-      <c r="L6" s="48">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A6,$D$2:$D$7)</f>
-        <v>17</v>
-      </c>
-      <c r="M6" s="49">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A6,$J$2:$J$7)</f>
-        <v>0.64</v>
-      </c>
-      <c r="N6" s="49">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A6,$J$2:$J$7)</f>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="O6" s="48">
-        <f t="shared" si="4"/>
-        <v>66.5</v>
-      </c>
-      <c r="P6" s="48">
-        <f t="shared" si="5"/>
-        <v>598.5</v>
-      </c>
-      <c r="Q6" s="48">
-        <f>$P$9/$D$9</f>
-        <v>54.5</v>
-      </c>
-      <c r="R6" s="48">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="S6" s="44">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="T6" s="48">
-        <f>D6*S6</f>
-        <v>108</v>
-      </c>
-      <c r="U6" s="48">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="V6" s="48">
-        <f>D6*U6</f>
-        <v>1296</v>
-      </c>
-      <c r="W6" s="48">
-        <f t="shared" si="9"/>
-        <v>1728</v>
-      </c>
-      <c r="X6" s="48">
-        <f t="shared" si="10"/>
-        <v>15552</v>
-      </c>
-      <c r="Y6" s="48">
-        <f t="shared" si="11"/>
-        <v>20736</v>
-      </c>
-      <c r="Z6" s="48">
-        <f t="shared" si="12"/>
-        <v>186624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
-        <f>C6+1</f>
-        <v>72</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="46">
-        <f>A7+9</f>
-        <v>81</v>
-      </c>
-      <c r="D7" s="47">
-        <v>8</v>
-      </c>
-      <c r="E7" s="48">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="F7" s="48">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="G7" s="48">
-        <f t="shared" si="2"/>
-        <v>71.5</v>
-      </c>
-      <c r="H7" s="48">
+        <v>91</v>
+      </c>
+      <c r="G8" s="35">
         <f t="shared" si="3"/>
         <v>81.5</v>
       </c>
-      <c r="I7" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;="&amp;A7,$D$2:$D$7)</f>
+      <c r="H8" s="35">
+        <f t="shared" si="4"/>
+        <v>91.5</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="J7" s="49">
-        <f>D7/$D$9*100%</f>
-        <v>0.16</v>
-      </c>
-      <c r="K7" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A7,$D$2:$D$7)</f>
-        <v>41</v>
-      </c>
-      <c r="L7" s="48">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A7,$D$2:$D$7)</f>
-        <v>8</v>
-      </c>
-      <c r="M7" s="49">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A7,$J$2:$J$7)</f>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="N7" s="49">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A7,$J$2:$J$7)</f>
-        <v>0.16</v>
-      </c>
-      <c r="O7" s="48">
-        <f t="shared" si="4"/>
-        <v>76.5</v>
-      </c>
-      <c r="P7" s="48">
-        <f t="shared" si="5"/>
-        <v>612</v>
-      </c>
-      <c r="Q7" s="48">
-        <f>$P$9/$D$9</f>
+      <c r="J8" s="36">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="9"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="N8" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="35">
+        <f t="shared" si="15"/>
+        <v>86.5</v>
+      </c>
+      <c r="P8" s="35">
+        <f t="shared" si="16"/>
+        <v>86.5</v>
+      </c>
+      <c r="Q8" s="35">
+        <f t="shared" si="11"/>
         <v>54.5</v>
       </c>
-      <c r="R7" s="48">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="S7" s="44">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="T7" s="48">
-        <f>D7*S7</f>
-        <v>176</v>
-      </c>
-      <c r="U7" s="48">
-        <f t="shared" si="8"/>
-        <v>484</v>
-      </c>
-      <c r="V7" s="48">
-        <f>D7*U7</f>
-        <v>3872</v>
-      </c>
-      <c r="W7" s="48">
-        <f t="shared" si="9"/>
-        <v>10648</v>
-      </c>
-      <c r="X7" s="48">
-        <f t="shared" si="10"/>
-        <v>85184</v>
-      </c>
-      <c r="Y7" s="48">
-        <f t="shared" si="11"/>
-        <v>234256</v>
-      </c>
-      <c r="Z7" s="48">
+      <c r="R8" s="35">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="S8" s="31">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="T8" s="35">
         <f t="shared" si="12"/>
-        <v>1874048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <f>C7+1</f>
-        <v>82</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="46">
-        <f>A8+9</f>
-        <v>91</v>
-      </c>
-      <c r="D8" s="48">
-        <v>1</v>
-      </c>
-      <c r="E8" s="48">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="F8" s="48">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="G8" s="48">
-        <f t="shared" si="2"/>
-        <v>81.5</v>
-      </c>
-      <c r="H8" s="48">
-        <f t="shared" si="3"/>
-        <v>91.5</v>
-      </c>
-      <c r="I8" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;="&amp;A8,$D$2:$D$7)</f>
-        <v>49</v>
-      </c>
-      <c r="J8" s="49">
-        <f>D8/$D$9*100%</f>
-        <v>0.02</v>
-      </c>
-      <c r="K8" s="48">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A8,$D$2:$D$7)</f>
-        <v>49</v>
-      </c>
-      <c r="L8" s="48">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A8,$D$2:$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="49">
-        <f>SUMIF($A$2:$A$7,"&lt;"&amp;A8,$J$2:$J$7)</f>
-        <v>0.98000000000000009</v>
-      </c>
-      <c r="N8" s="49">
-        <f>SUMIF($A$2:$A$7,"&gt;="&amp;A8,$J$2:$J$7)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="48">
-        <f t="shared" si="4"/>
-        <v>86.5</v>
-      </c>
-      <c r="P8" s="48">
-        <f t="shared" si="5"/>
-        <v>86.5</v>
-      </c>
-      <c r="Q8" s="48">
-        <f>$P$9/$D$9</f>
-        <v>54.5</v>
-      </c>
-      <c r="R8" s="48">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="S8" s="44">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="T8" s="48">
-        <f>D8*S8</f>
-        <v>32</v>
-      </c>
-      <c r="U8" s="48">
-        <f t="shared" si="8"/>
+      <c r="U8" s="35">
+        <f t="shared" si="19"/>
         <v>1024</v>
       </c>
-      <c r="V8" s="48">
-        <f>D8*U8</f>
+      <c r="V8" s="35">
+        <f t="shared" si="13"/>
         <v>1024</v>
       </c>
-      <c r="W8" s="48">
-        <f t="shared" si="9"/>
+      <c r="W8" s="35">
+        <f t="shared" si="20"/>
         <v>32768</v>
       </c>
-      <c r="X8" s="48">
-        <f t="shared" si="10"/>
+      <c r="X8" s="35">
+        <f t="shared" si="21"/>
         <v>32768</v>
       </c>
-      <c r="Y8" s="48">
-        <f t="shared" si="11"/>
+      <c r="Y8" s="35">
+        <f t="shared" si="22"/>
         <v>1048576</v>
       </c>
-      <c r="Z8" s="48">
-        <f t="shared" si="12"/>
+      <c r="Z8" s="35">
+        <f t="shared" si="23"/>
         <v>1048576</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="48">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="35">
         <f>SUM(D2:D8)</f>
         <v>50</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="P9" s="48">
+      <c r="J9" s="42"/>
+      <c r="P9" s="35">
         <f>SUM(P2:P8)</f>
         <v>2725</v>
       </c>
-      <c r="T9" s="48">
+      <c r="T9" s="35">
         <f>SUM(T2:T8)</f>
         <v>676</v>
       </c>
-      <c r="V9" s="48">
+      <c r="V9" s="35">
         <f>SUM(V2:V8)</f>
         <v>13000</v>
       </c>
-      <c r="X9" s="57">
+      <c r="X9" s="43">
         <f>SUM(X2:X8)</f>
         <v>288784</v>
       </c>
-      <c r="Z9" s="48">
+      <c r="Z9" s="35">
         <f>SUM(Z2:Z8)</f>
         <v>6954400</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S12" s="43" t="s">
+      <c r="S12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="43">
+      <c r="U12" s="30">
         <f>P9/D9</f>
         <v>54.5</v>
       </c>
@@ -16170,444 +16146,444 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y13" s="1"/>
-      <c r="AB13" s="56"/>
+      <c r="AB13" s="42"/>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y14" s="1"/>
-      <c r="AB14" s="56"/>
+      <c r="AB14" s="42"/>
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="30" t="s">
         <v>37</v>
       </c>
       <c r="Y16" s="1"/>
-      <c r="AB16" s="56"/>
+      <c r="AB16" s="42"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="30">
         <f>P9/D9</f>
         <v>54.5</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="Y17" s="56"/>
+      <c r="Y17" s="42"/>
       <c r="Z17" s="1"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="58"/>
-      <c r="S19" s="59" t="s">
+      <c r="Q19" s="59"/>
+      <c r="S19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="59"/>
-      <c r="V19" s="60" t="s">
+      <c r="T19" s="61"/>
+      <c r="V19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="60"/>
-      <c r="Y19" s="61" t="s">
+      <c r="W19" s="62"/>
+      <c r="Y19" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Z19" s="61"/>
-      <c r="AB19" s="62" t="s">
+      <c r="Z19" s="63"/>
+      <c r="AB19" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AC19" s="62"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="P20" s="43" t="s">
+      <c r="P20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="30">
         <f>D9/2</f>
         <v>25</v>
       </c>
-      <c r="S20" s="43" t="s">
+      <c r="S20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="30">
         <f>MAX(D2:D8)</f>
         <v>11</v>
       </c>
-      <c r="V20" s="43" t="s">
+      <c r="V20" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="W20" s="43">
+      <c r="W20" s="30">
         <f>(1*$D$9)/4</f>
         <v>12.5</v>
       </c>
-      <c r="Y20" s="43" t="s">
+      <c r="Y20" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="30">
         <f>(1*$D$9)/10</f>
         <v>5</v>
       </c>
-      <c r="AB20" s="43" t="s">
+      <c r="AB20" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="AC20" s="43">
+      <c r="AC20" s="30">
         <f>(1*$D$9)/100</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="30">
         <f>G5</f>
         <v>51.5</v>
       </c>
-      <c r="S21" s="43" t="s">
+      <c r="S21" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="T21" s="43">
+      <c r="T21" s="30">
         <f>G5</f>
         <v>51.5</v>
       </c>
-      <c r="V21" s="43" t="s">
+      <c r="V21" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="W21" s="43">
+      <c r="W21" s="30">
         <f>G3</f>
         <v>31.5</v>
       </c>
-      <c r="Y21" s="43" t="s">
+      <c r="Y21" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="Z21" s="43">
+      <c r="Z21" s="30">
         <f>G3</f>
         <v>31.5</v>
       </c>
-      <c r="AB21" s="43" t="s">
+      <c r="AB21" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AC21" s="43">
+      <c r="AC21" s="30">
         <f>G3</f>
         <v>31.5</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="30">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63" t="s">
+      <c r="R22" s="44"/>
+      <c r="S22" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="T22" s="43">
+      <c r="T22" s="30">
         <f>D5-D4</f>
         <v>2</v>
       </c>
-      <c r="V22" s="43" t="s">
+      <c r="V22" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="W22" s="43">
+      <c r="W22" s="30">
         <f>D3</f>
         <v>7</v>
       </c>
-      <c r="Y22" s="43" t="s">
+      <c r="Y22" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="Z22" s="43">
+      <c r="Z22" s="30">
         <f>D3</f>
         <v>7</v>
       </c>
-      <c r="AB22" s="43" t="s">
+      <c r="AB22" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="AC22" s="43">
+      <c r="AC22" s="30">
         <f>D3</f>
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="P23" s="43" t="s">
+      <c r="P23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="30">
         <f>$C$2-$A$2+1</f>
         <v>10</v>
       </c>
-      <c r="S23" s="63" t="s">
+      <c r="S23" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="T23" s="43">
+      <c r="T23" s="30">
         <f>D5-D6</f>
         <v>2</v>
       </c>
-      <c r="V23" s="43" t="s">
+      <c r="V23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="W23" s="43">
+      <c r="W23" s="30">
         <f>$C$2-$A$2+1</f>
         <v>10</v>
       </c>
-      <c r="Y23" s="43" t="s">
+      <c r="Y23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="30">
         <f>$C$2-$A$2+1</f>
         <v>10</v>
       </c>
-      <c r="AB23" s="43" t="s">
+      <c r="AB23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AC23" s="43">
+      <c r="AC23" s="30">
         <f>$C$2-$A$2+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="P24" s="64" t="s">
+      <c r="P24" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q24" s="30">
         <f>I4</f>
         <v>21</v>
       </c>
-      <c r="S24" s="43" t="s">
+      <c r="S24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="T24" s="43">
+      <c r="T24" s="30">
         <f>$C$2-$A$2+1</f>
         <v>10</v>
       </c>
-      <c r="V24" s="64" t="s">
+      <c r="V24" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="W24" s="43">
+      <c r="W24" s="30">
         <f>I2</f>
         <v>5</v>
       </c>
-      <c r="Y24" s="64" t="s">
+      <c r="Y24" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="Z24" s="43">
+      <c r="Z24" s="30">
         <f>I2</f>
         <v>5</v>
       </c>
-      <c r="AB24" s="64" t="s">
+      <c r="AB24" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="AC24" s="43">
+      <c r="AC24" s="30">
         <f>I2</f>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P25" s="43" t="str">
+      <c r="P25" s="30" t="str">
         <f>P19</f>
         <v>Median</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="30">
         <f>Q21+((Q20-Q24)/Q22)*Q23</f>
         <v>55.13636363636364</v>
       </c>
-      <c r="S25" s="43" t="str">
+      <c r="S25" s="30" t="str">
         <f>S19</f>
         <v>Modus</v>
       </c>
-      <c r="T25" s="43">
+      <c r="T25" s="30">
         <f>T21+((T22/(T22+T23))*T24)</f>
         <v>56.5</v>
       </c>
-      <c r="V25" s="43" t="str">
+      <c r="V25" s="30" t="str">
         <f>V19</f>
         <v>Kuartil 1</v>
       </c>
-      <c r="W25" s="43">
+      <c r="W25" s="30">
         <f>W21+((W20-W24)/W22)*W23</f>
         <v>42.214285714285715</v>
       </c>
-      <c r="Y25" s="43" t="str">
+      <c r="Y25" s="30" t="str">
         <f>Y19</f>
         <v>Desil 1</v>
       </c>
-      <c r="Z25" s="43">
+      <c r="Z25" s="30">
         <f>Z21+(((Z20-Z24)/Z22)*Z23)</f>
         <v>31.5</v>
       </c>
-      <c r="AB25" s="43" t="str">
+      <c r="AB25" s="30" t="str">
         <f>AB19</f>
         <v>Prentil 1</v>
       </c>
-      <c r="AC25" s="43">
+      <c r="AC25" s="30">
         <f>AC21+((AC20-AC24)/AC22)*AC23</f>
         <v>25.071428571428569</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P33" s="43" t="s">
+      <c r="P33" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S33" s="43">
+      <c r="S33" s="30">
         <f>P9/D9</f>
         <v>54.5</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P34" s="43" t="s">
+      <c r="P34" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="30">
         <f>T9/D9</f>
         <v>13.52</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P35" s="43" t="s">
+      <c r="P35" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="S35" s="43">
+      <c r="S35" s="30">
         <f>(1/(D9-1))*V9</f>
         <v>265.30612244897958</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P36" s="43" t="s">
+      <c r="P36" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S36" s="43">
+      <c r="S36" s="30">
         <f>SQRT(S35)</f>
         <v>16.288220358559112</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="58"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P42" s="43" t="s">
+      <c r="P42" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U42" s="43">
+      <c r="U42" s="30">
         <f>(1/(($D$9*$S$36)^3))*X9</f>
         <v>5.3461631264808301E-4</v>
       </c>
-      <c r="V42" s="43" t="str">
+      <c r="V42" s="30" t="str">
         <f>IF(U42&lt;0,"Distribusi data miring ke kiri",IF(U42&gt;0,"Distribusi data miring ke kanan","Distribusi data simetris"))</f>
         <v>Distribusi data miring ke kanan</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P43" s="43" t="s">
+      <c r="P43" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="U43" s="43">
+      <c r="U43" s="30">
         <f>(1/(($D$9*$S$36)^4))*Z9</f>
         <v>1.580829765680474E-5</v>
       </c>
-      <c r="V43" s="43" t="str">
+      <c r="V43" s="30" t="str">
         <f>IF(U43&lt;3,"Distribusi keruncingan data disebut platikurtis",IF(U43&gt;3,"Distribusi kemiringan data disebut leptokurtis","Distribusi keruncingan data disebut mesokurtis"))</f>
         <v>Distribusi keruncingan data disebut platikurtis</v>
       </c>

--- a/Rabu/Statistika/UTS.xlsx
+++ b/Rabu/Statistika/UTS.xlsx
@@ -3575,15 +3575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3603,6 +3594,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13669,8 +13669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13726,11 +13726,11 @@
         <f>COUNTA(B2:K6)</f>
         <v>50</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
       <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
@@ -14703,11 +14703,11 @@
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
       <c r="S10" s="9">
         <f>SUM(S3:S9)</f>
         <v>50</v>
@@ -14757,52 +14757,52 @@
       <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="1:44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -14825,26 +14825,26 @@
       <c r="AC17" s="16"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S19" s="53" t="s">
+      <c r="S19" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="53"/>
-      <c r="V19" s="54" t="s">
+      <c r="T19" s="50"/>
+      <c r="V19" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="54"/>
-      <c r="Y19" s="55" t="s">
+      <c r="W19" s="51"/>
+      <c r="Y19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="Z19" s="55"/>
-      <c r="AB19" s="47" t="s">
+      <c r="Z19" s="52"/>
+      <c r="AB19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AC19" s="47"/>
-      <c r="AE19" s="48" t="s">
+      <c r="AC19" s="54"/>
+      <c r="AE19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AF19" s="48"/>
+      <c r="AF19" s="55"/>
     </row>
     <row r="20" spans="1:44" ht="18.75" x14ac:dyDescent="0.35">
       <c r="S20" s="11" t="s">
@@ -15075,52 +15075,52 @@
       </c>
     </row>
     <row r="31" spans="1:44" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
-      <c r="AR31" s="46"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S33" s="11" t="s">
@@ -15159,52 +15159,52 @@
       </c>
     </row>
     <row r="41" spans="1:44" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="46"/>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="46"/>
-      <c r="AK41" s="46"/>
-      <c r="AL41" s="46"/>
-      <c r="AM41" s="46"/>
-      <c r="AN41" s="46"/>
-      <c r="AO41" s="46"/>
-      <c r="AP41" s="46"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="46"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="53"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="53"/>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="O42" s="11" t="s">
@@ -15234,16 +15234,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A31:AR31"/>
+    <mergeCell ref="A41:AR41"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="A15:AR15"/>
-    <mergeCell ref="A31:AR31"/>
-    <mergeCell ref="A41:AR41"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AE19:AF19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
